--- a/Data/data_td_1_solution.xlsx
+++ b/Data/data_td_1_solution.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martinvaldez/Documents/git/Macro-1-EC/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA8EC9E7-F1E6-2E4E-B785-0DA6FE7F2A77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{763529C8-8C20-5146-A75D-643B85BE7553}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{E93013D6-1D5F-9444-BED6-B861559A08A3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{E93013D6-1D5F-9444-BED6-B861559A08A3}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
     <sheet name="sources" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -132,9 +132,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -2520,15 +2519,15 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US" b="1"/>
               <a:t>RealGDP p C (growth</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
+              <a:rPr lang="en-US" b="1" baseline="0"/>
               <a:t> rate</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US" b="1"/>
               <a:t>)</a:t>
             </a:r>
           </a:p>
@@ -5323,15 +5322,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1568450</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>603250</xdr:colOff>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5359,16 +5358,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1219200</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2133600</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>241300</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5755,8 +5754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9331AC4C-5AC8-AA4B-BF51-E103D512A3D5}">
   <dimension ref="A1:N65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:M64"/>
+    <sheetView tabSelected="1" topLeftCell="F36" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5773,48 +5772,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="7">
+      <c r="A2" s="6">
         <v>1960</v>
       </c>
       <c r="B2">
@@ -5847,7 +5846,7 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="7">
+      <c r="A3" s="6">
         <v>1961</v>
       </c>
       <c r="B3">
@@ -5886,18 +5885,18 @@
         <f t="shared" ref="K3:K64" si="3">LN(I3)</f>
         <v>9.8654505995927551</v>
       </c>
-      <c r="L3" s="3">
+      <c r="L3" s="2">
         <f>J3-J2</f>
         <v>2.2739486969484801E-2</v>
       </c>
-      <c r="M3" s="3">
+      <c r="M3" s="2">
         <f>K3-K2</f>
         <v>6.1621865955920896E-3</v>
       </c>
-      <c r="N3" s="3"/>
+      <c r="N3" s="2"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="7">
+      <c r="A4" s="6">
         <v>1962</v>
       </c>
       <c r="B4">
@@ -5936,18 +5935,18 @@
         <f t="shared" si="3"/>
         <v>9.9092824856420627</v>
       </c>
-      <c r="L4" s="3">
+      <c r="L4" s="2">
         <f t="shared" ref="L4:L64" si="6">J4-J3</f>
         <v>5.921185963184783E-2</v>
       </c>
-      <c r="M4" s="3">
+      <c r="M4" s="2">
         <f>K4-K3</f>
         <v>4.3831886049307656E-2</v>
       </c>
-      <c r="N4" s="3"/>
+      <c r="N4" s="2"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="7">
+      <c r="A5" s="6">
         <v>1963</v>
       </c>
       <c r="B5">
@@ -5986,18 +5985,18 @@
         <f t="shared" si="3"/>
         <v>9.9379503274854404</v>
       </c>
-      <c r="L5" s="3">
+      <c r="L5" s="2">
         <f t="shared" si="6"/>
         <v>4.3059489460446798E-2</v>
       </c>
-      <c r="M5" s="3">
-        <f t="shared" ref="M4:M64" si="7">K5-K4</f>
+      <c r="M5" s="2">
+        <f t="shared" ref="M5:M64" si="7">K5-K4</f>
         <v>2.8667841843377673E-2</v>
       </c>
-      <c r="N5" s="3"/>
+      <c r="N5" s="2"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="7">
+      <c r="A6" s="6">
         <v>1964</v>
       </c>
       <c r="B6">
@@ -6036,18 +6035,18 @@
         <f t="shared" si="3"/>
         <v>9.9804402003697135</v>
       </c>
-      <c r="L6" s="3">
+      <c r="L6" s="2">
         <f t="shared" si="6"/>
         <v>5.6380333436109709E-2</v>
       </c>
-      <c r="M6" s="3">
+      <c r="M6" s="2">
         <f t="shared" si="7"/>
         <v>4.2489872884273083E-2</v>
       </c>
-      <c r="N6" s="3"/>
+      <c r="N6" s="2"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="7">
+      <c r="A7" s="6">
         <v>1965</v>
       </c>
       <c r="B7">
@@ -6086,18 +6085,18 @@
         <f t="shared" si="3"/>
         <v>10.02997387483288</v>
       </c>
-      <c r="L7" s="3">
+      <c r="L7" s="2">
         <f t="shared" si="6"/>
         <v>6.2035390919451316E-2</v>
       </c>
-      <c r="M7" s="3">
+      <c r="M7" s="2">
         <f t="shared" si="7"/>
         <v>4.9533674463166477E-2</v>
       </c>
-      <c r="N7" s="3"/>
+      <c r="N7" s="2"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="7">
+      <c r="A8" s="6">
         <v>1966</v>
       </c>
       <c r="B8">
@@ -6136,18 +6135,18 @@
         <f t="shared" si="3"/>
         <v>10.081399742086719</v>
       </c>
-      <c r="L8" s="3">
+      <c r="L8" s="2">
         <f t="shared" si="6"/>
         <v>6.2974799161388262E-2</v>
       </c>
-      <c r="M8" s="3">
+      <c r="M8" s="2">
         <f t="shared" si="7"/>
         <v>5.1425867253838575E-2</v>
       </c>
-      <c r="N8" s="3"/>
+      <c r="N8" s="2"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="7">
+      <c r="A9" s="6">
         <v>1967</v>
       </c>
       <c r="B9">
@@ -6186,18 +6185,18 @@
         <f t="shared" si="3"/>
         <v>10.095203542604215</v>
       </c>
-      <c r="L9" s="3">
+      <c r="L9" s="2">
         <f t="shared" si="6"/>
         <v>2.4692612590374807E-2</v>
       </c>
-      <c r="M9" s="3">
+      <c r="M9" s="2">
         <f t="shared" si="7"/>
         <v>1.3803800517496967E-2</v>
       </c>
-      <c r="N9" s="3"/>
+      <c r="N9" s="2"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="7">
+      <c r="A10" s="6">
         <v>1968</v>
       </c>
       <c r="B10">
@@ -6236,18 +6235,18 @@
         <f t="shared" si="3"/>
         <v>10.132102518067208</v>
       </c>
-      <c r="L10" s="3">
+      <c r="L10" s="2">
         <f t="shared" si="6"/>
         <v>4.688358589884345E-2</v>
       </c>
-      <c r="M10" s="3">
+      <c r="M10" s="2">
         <f t="shared" si="7"/>
         <v>3.6898975462992922E-2</v>
       </c>
-      <c r="N10" s="3"/>
+      <c r="N10" s="2"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="7">
+      <c r="A11" s="6">
         <v>1969</v>
       </c>
       <c r="B11">
@@ -6286,18 +6285,18 @@
         <f t="shared" si="3"/>
         <v>10.152859294983307</v>
       </c>
-      <c r="L11" s="3">
+      <c r="L11" s="2">
         <f t="shared" si="6"/>
         <v>3.0529205034824258E-2</v>
       </c>
-      <c r="M11" s="3">
+      <c r="M11" s="2">
         <f t="shared" si="7"/>
         <v>2.0756776916098119E-2</v>
       </c>
-      <c r="N11" s="3"/>
+      <c r="N11" s="2"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="7">
+      <c r="A12" s="6">
         <v>1970</v>
       </c>
       <c r="B12">
@@ -6336,18 +6335,18 @@
         <f t="shared" si="3"/>
         <v>10.138370329706953</v>
       </c>
-      <c r="L12" s="3">
+      <c r="L12" s="2">
         <f t="shared" si="6"/>
         <v>-2.8389386076241863E-3</v>
       </c>
-      <c r="M12" s="3">
+      <c r="M12" s="2">
         <f t="shared" si="7"/>
         <v>-1.4488965276353127E-2</v>
       </c>
-      <c r="N12" s="3"/>
+      <c r="N12" s="2"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" s="7">
+      <c r="A13" s="6">
         <v>1971</v>
       </c>
       <c r="B13">
@@ -6386,18 +6385,18 @@
         <f t="shared" si="3"/>
         <v>10.158129821118253</v>
       </c>
-      <c r="L13" s="3">
+      <c r="L13" s="2">
         <f t="shared" si="6"/>
         <v>3.2402828329807676E-2</v>
       </c>
-      <c r="M13" s="3">
+      <c r="M13" s="2">
         <f t="shared" si="7"/>
         <v>1.9759491411299734E-2</v>
       </c>
-      <c r="N13" s="3"/>
+      <c r="N13" s="2"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="7">
+      <c r="A14" s="6">
         <v>1972</v>
       </c>
       <c r="B14">
@@ -6436,18 +6435,18 @@
         <f t="shared" si="3"/>
         <v>10.198677507058765</v>
       </c>
-      <c r="L14" s="3">
+      <c r="L14" s="2">
         <f t="shared" si="6"/>
         <v>5.1252913464239214E-2</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M14" s="2">
         <f t="shared" si="7"/>
         <v>4.0547685940511613E-2</v>
       </c>
-      <c r="N14" s="3"/>
+      <c r="N14" s="2"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="7">
+      <c r="A15" s="6">
         <v>1973</v>
       </c>
       <c r="B15">
@@ -6486,18 +6485,18 @@
         <f t="shared" si="3"/>
         <v>10.244053810100793</v>
       </c>
-      <c r="L15" s="3">
+      <c r="L15" s="2">
         <f t="shared" si="6"/>
         <v>5.4921070327552002E-2</v>
       </c>
-      <c r="M15" s="3">
+      <c r="M15" s="2">
         <f t="shared" si="7"/>
         <v>4.5376303042027999E-2</v>
       </c>
-      <c r="N15" s="3"/>
+      <c r="N15" s="2"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="7">
+      <c r="A16" s="6">
         <v>1974</v>
       </c>
       <c r="B16">
@@ -6536,18 +6535,18 @@
         <f t="shared" si="3"/>
         <v>10.229497028956484</v>
       </c>
-      <c r="L16" s="3">
+      <c r="L16" s="2">
         <f t="shared" si="6"/>
         <v>-5.4201791836305802E-3</v>
       </c>
-      <c r="M16" s="3">
+      <c r="M16" s="2">
         <f t="shared" si="7"/>
         <v>-1.4556781144309028E-2</v>
       </c>
-      <c r="N16" s="3"/>
+      <c r="N16" s="2"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17" s="7">
+      <c r="A17" s="6">
         <v>1975</v>
       </c>
       <c r="B17">
@@ -6586,18 +6585,18 @@
         <f t="shared" si="3"/>
         <v>10.21758049412777</v>
       </c>
-      <c r="L17" s="3">
+      <c r="L17" s="2">
         <f t="shared" si="6"/>
         <v>-2.0566741552450196E-3</v>
       </c>
-      <c r="M17" s="3">
+      <c r="M17" s="2">
         <f t="shared" si="7"/>
         <v>-1.191653482871402E-2</v>
       </c>
-      <c r="N17" s="3"/>
+      <c r="N17" s="2"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A18" s="7">
+      <c r="A18" s="6">
         <v>1976</v>
       </c>
       <c r="B18">
@@ -6636,18 +6635,18 @@
         <f t="shared" si="3"/>
         <v>10.260558206943591</v>
       </c>
-      <c r="L18" s="3">
+      <c r="L18" s="2">
         <f t="shared" si="6"/>
         <v>5.2479913305766956E-2</v>
       </c>
-      <c r="M18" s="3">
+      <c r="M18" s="2">
         <f t="shared" si="7"/>
         <v>4.2977712815821079E-2</v>
       </c>
-      <c r="N18" s="3"/>
+      <c r="N18" s="2"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A19" s="7">
+      <c r="A19" s="6">
         <v>1977</v>
       </c>
       <c r="B19">
@@ -6686,18 +6685,18 @@
         <f t="shared" si="3"/>
         <v>10.295704734810691</v>
       </c>
-      <c r="L19" s="3">
+      <c r="L19" s="2">
         <f t="shared" si="6"/>
         <v>4.5204247828912969E-2</v>
       </c>
-      <c r="M19" s="3">
+      <c r="M19" s="2">
         <f t="shared" si="7"/>
         <v>3.5146527867100374E-2</v>
       </c>
-      <c r="N19" s="3"/>
+      <c r="N19" s="2"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A20" s="7">
+      <c r="A20" s="6">
         <v>1978</v>
       </c>
       <c r="B20">
@@ -6736,18 +6735,18 @@
         <f t="shared" si="3"/>
         <v>10.338984359109855</v>
       </c>
-      <c r="L20" s="3">
+      <c r="L20" s="2">
         <f t="shared" si="6"/>
         <v>5.3875355102590561E-2</v>
       </c>
-      <c r="M20" s="3">
+      <c r="M20" s="2">
         <f t="shared" si="7"/>
         <v>4.3279624299163544E-2</v>
       </c>
-      <c r="N20" s="3"/>
+      <c r="N20" s="2"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A21" s="7">
+      <c r="A21" s="6">
         <v>1979</v>
       </c>
       <c r="B21">
@@ -6786,18 +6785,18 @@
         <f t="shared" si="3"/>
         <v>10.359119157355064</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="2">
         <f t="shared" si="6"/>
         <v>3.1170563896200321E-2</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M21" s="2">
         <f t="shared" si="7"/>
         <v>2.013479824520914E-2</v>
       </c>
-      <c r="N21" s="3"/>
+      <c r="N21" s="2"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A22" s="7">
+      <c r="A22" s="6">
         <v>1980</v>
       </c>
       <c r="B22">
@@ -6836,18 +6835,18 @@
         <f t="shared" si="3"/>
         <v>10.34695245971637</v>
       </c>
-      <c r="L22" s="3">
+      <c r="L22" s="2">
         <f t="shared" si="6"/>
         <v>-2.5707984110496795E-3</v>
       </c>
-      <c r="M22" s="3">
+      <c r="M22" s="2">
         <f t="shared" si="7"/>
         <v>-1.2166697638694046E-2</v>
       </c>
-      <c r="N22" s="3"/>
+      <c r="N22" s="2"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A23" s="7">
+      <c r="A23" s="6">
         <v>1981</v>
       </c>
       <c r="B23">
@@ -6886,18 +6885,18 @@
         <f t="shared" si="3"/>
         <v>10.362198843481709</v>
       </c>
-      <c r="L23" s="3">
+      <c r="L23" s="2">
         <f t="shared" si="6"/>
         <v>2.5060538137935851E-2</v>
       </c>
-      <c r="M23" s="3">
+      <c r="M23" s="2">
         <f t="shared" si="7"/>
         <v>1.5246383765338933E-2</v>
       </c>
-      <c r="N23" s="3"/>
+      <c r="N23" s="2"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A24" s="7">
+      <c r="A24" s="6">
         <v>1982</v>
       </c>
       <c r="B24">
@@ -6936,18 +6935,18 @@
         <f t="shared" si="3"/>
         <v>10.334472293411327</v>
       </c>
-      <c r="L24" s="3">
+      <c r="L24" s="2">
         <f t="shared" si="6"/>
         <v>-1.819337440874591E-2</v>
       </c>
-      <c r="M24" s="3">
+      <c r="M24" s="2">
         <f t="shared" si="7"/>
         <v>-2.7726550070381606E-2</v>
       </c>
-      <c r="N24" s="3"/>
+      <c r="N24" s="2"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A25" s="7">
+      <c r="A25" s="6">
         <v>1983</v>
       </c>
       <c r="B25">
@@ -6986,18 +6985,18 @@
         <f t="shared" si="3"/>
         <v>10.370148070078777</v>
       </c>
-      <c r="L25" s="3">
+      <c r="L25" s="2">
         <f t="shared" si="6"/>
         <v>4.4819561801201502E-2</v>
       </c>
-      <c r="M25" s="3">
+      <c r="M25" s="2">
         <f t="shared" si="7"/>
         <v>3.567577666744981E-2</v>
       </c>
-      <c r="N25" s="3"/>
+      <c r="N25" s="2"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A26" s="7">
+      <c r="A26" s="6">
         <v>1984</v>
       </c>
       <c r="B26">
@@ -7036,18 +7035,18 @@
         <f t="shared" si="3"/>
         <v>10.431357628136125</v>
       </c>
-      <c r="L26" s="3">
+      <c r="L26" s="2">
         <f t="shared" si="6"/>
         <v>6.9867731420444557E-2</v>
       </c>
-      <c r="M26" s="3">
+      <c r="M26" s="2">
         <f t="shared" si="7"/>
         <v>6.1209558057347735E-2</v>
       </c>
-      <c r="N26" s="3"/>
+      <c r="N26" s="2"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A27" s="7">
+      <c r="A27" s="6">
         <v>1985</v>
       </c>
       <c r="B27">
@@ -7086,18 +7085,18 @@
         <f t="shared" si="3"/>
         <v>10.463347031580463</v>
       </c>
-      <c r="L27" s="3">
+      <c r="L27" s="2">
         <f t="shared" si="6"/>
         <v>4.0850693852849673E-2</v>
       </c>
-      <c r="M27" s="3">
+      <c r="M27" s="2">
         <f t="shared" si="7"/>
         <v>3.1989403444338649E-2</v>
       </c>
-      <c r="N27" s="3"/>
+      <c r="N27" s="2"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A28" s="7">
+      <c r="A28" s="6">
         <v>1986</v>
       </c>
       <c r="B28">
@@ -7136,18 +7135,18 @@
         <f t="shared" si="3"/>
         <v>10.488145843091973</v>
       </c>
-      <c r="L28" s="3">
+      <c r="L28" s="2">
         <f t="shared" si="6"/>
         <v>3.404045308209902E-2</v>
       </c>
-      <c r="M28" s="3">
+      <c r="M28" s="2">
         <f t="shared" si="7"/>
         <v>2.47988115115092E-2</v>
       </c>
-      <c r="N28" s="3"/>
+      <c r="N28" s="2"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A29" s="7">
+      <c r="A29" s="6">
         <v>1987</v>
       </c>
       <c r="B29">
@@ -7186,18 +7185,18 @@
         <f t="shared" si="3"/>
         <v>10.513215199696274</v>
       </c>
-      <c r="L29" s="3">
+      <c r="L29" s="2">
         <f t="shared" si="6"/>
         <v>3.4007648614622354E-2</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M29" s="2">
         <f t="shared" si="7"/>
         <v>2.5069356604301873E-2</v>
       </c>
-      <c r="N29" s="3"/>
+      <c r="N29" s="2"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A30" s="7">
+      <c r="A30" s="6">
         <v>1988</v>
       </c>
       <c r="B30">
@@ -7236,18 +7235,18 @@
         <f t="shared" si="3"/>
         <v>10.545056987233799</v>
       </c>
-      <c r="L30" s="3">
+      <c r="L30" s="2">
         <f t="shared" si="6"/>
         <v>4.0921777939200155E-2</v>
       </c>
-      <c r="M30" s="3">
+      <c r="M30" s="2">
         <f t="shared" si="7"/>
         <v>3.1841787537524979E-2</v>
       </c>
-      <c r="N30" s="3"/>
+      <c r="N30" s="2"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A31" s="7">
+      <c r="A31" s="6">
         <v>1989</v>
       </c>
       <c r="B31">
@@ -7286,18 +7285,18 @@
         <f t="shared" si="3"/>
         <v>10.571681066729408</v>
       </c>
-      <c r="L31" s="3">
+      <c r="L31" s="2">
         <f t="shared" si="6"/>
         <v>3.6068135049895034E-2</v>
       </c>
-      <c r="M31" s="3">
+      <c r="M31" s="2">
         <f t="shared" si="7"/>
         <v>2.6624079495608299E-2</v>
       </c>
-      <c r="N31" s="3"/>
+      <c r="N31" s="2"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A32" s="7">
+      <c r="A32" s="6">
         <v>1990</v>
       </c>
       <c r="B32">
@@ -7336,18 +7335,18 @@
         <f t="shared" si="3"/>
         <v>10.57906857278255</v>
       </c>
-      <c r="L32" s="3">
+      <c r="L32" s="2">
         <f t="shared" si="6"/>
         <v>1.8684011257700917E-2</v>
       </c>
-      <c r="M32" s="3">
+      <c r="M32" s="2">
         <f t="shared" si="7"/>
         <v>7.38750605314209E-3</v>
       </c>
-      <c r="N32" s="3"/>
+      <c r="N32" s="2"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A33" s="7">
+      <c r="A33" s="6">
         <v>1991</v>
       </c>
       <c r="B33">
@@ -7386,18 +7385,18 @@
         <f t="shared" si="3"/>
         <v>10.564622730980025</v>
       </c>
-      <c r="L33" s="3">
+      <c r="L33" s="2">
         <f t="shared" si="6"/>
         <v>-1.0832343951463486E-3</v>
       </c>
-      <c r="M33" s="3">
+      <c r="M33" s="2">
         <f t="shared" si="7"/>
         <v>-1.4445841802524839E-2</v>
       </c>
-      <c r="N33" s="3"/>
+      <c r="N33" s="2"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A34" s="7">
+      <c r="A34" s="6">
         <v>1992</v>
       </c>
       <c r="B34">
@@ -7436,18 +7435,18 @@
         <f t="shared" si="3"/>
         <v>10.585372093961126</v>
       </c>
-      <c r="L34" s="3">
+      <c r="L34" s="2">
         <f t="shared" si="6"/>
         <v>3.4618219905894421E-2</v>
       </c>
-      <c r="M34" s="3">
+      <c r="M34" s="2">
         <f t="shared" si="7"/>
         <v>2.0749362981101527E-2</v>
       </c>
-      <c r="N34" s="3"/>
+      <c r="N34" s="2"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A35" s="7">
+      <c r="A35" s="6">
         <v>1993</v>
       </c>
       <c r="B35">
@@ -7486,18 +7485,18 @@
         <f t="shared" si="3"/>
         <v>10.599331295030733</v>
       </c>
-      <c r="L35" s="3">
+      <c r="L35" s="2">
         <f t="shared" si="6"/>
         <v>2.7146001067379188E-2</v>
       </c>
-      <c r="M35" s="3">
+      <c r="M35" s="2">
         <f t="shared" si="7"/>
         <v>1.3959201069607019E-2</v>
       </c>
-      <c r="N35" s="3"/>
+      <c r="N35" s="2"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A36" s="7">
+      <c r="A36" s="6">
         <v>1994</v>
       </c>
       <c r="B36">
@@ -7536,18 +7535,18 @@
         <f t="shared" si="3"/>
         <v>10.626565867245606</v>
       </c>
-      <c r="L36" s="3">
+      <c r="L36" s="2">
         <f t="shared" si="6"/>
         <v>3.9497533103556748E-2</v>
       </c>
-      <c r="M36" s="3">
+      <c r="M36" s="2">
         <f t="shared" si="7"/>
         <v>2.7234572214872799E-2</v>
       </c>
-      <c r="N36" s="3"/>
+      <c r="N36" s="2"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A37" s="7">
+      <c r="A37" s="6">
         <v>1995</v>
       </c>
       <c r="B37">
@@ -7586,18 +7585,18 @@
         <f t="shared" si="3"/>
         <v>10.641146237499411</v>
       </c>
-      <c r="L37" s="3">
+      <c r="L37" s="2">
         <f t="shared" si="6"/>
         <v>2.6488241162823556E-2</v>
       </c>
-      <c r="M37" s="3">
+      <c r="M37" s="2">
         <f t="shared" si="7"/>
         <v>1.4580370253804986E-2</v>
       </c>
-      <c r="N37" s="3"/>
+      <c r="N37" s="2"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A38" s="7">
+      <c r="A38" s="6">
         <v>1996</v>
       </c>
       <c r="B38">
@@ -7636,18 +7635,18 @@
         <f t="shared" si="3"/>
         <v>10.666543569560483</v>
       </c>
-      <c r="L38" s="3">
+      <c r="L38" s="2">
         <f t="shared" si="6"/>
         <v>3.7031448260890443E-2</v>
       </c>
-      <c r="M38" s="3">
+      <c r="M38" s="2">
         <f t="shared" si="7"/>
         <v>2.5397332061071864E-2</v>
       </c>
-      <c r="N38" s="3"/>
+      <c r="N38" s="2"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A39" s="7">
+      <c r="A39" s="6">
         <v>1997</v>
       </c>
       <c r="B39">
@@ -7686,18 +7685,18 @@
         <f t="shared" si="3"/>
         <v>10.698015221281143</v>
       </c>
-      <c r="L39" s="3">
+      <c r="L39" s="2">
         <f t="shared" si="6"/>
         <v>4.3511254690788093E-2</v>
       </c>
-      <c r="M39" s="3">
+      <c r="M39" s="2">
         <f t="shared" si="7"/>
         <v>3.1471651720659466E-2</v>
       </c>
-      <c r="N39" s="3"/>
+      <c r="N39" s="2"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A40" s="7">
+      <c r="A40" s="6">
         <v>1998</v>
       </c>
       <c r="B40">
@@ -7736,18 +7735,18 @@
         <f t="shared" si="3"/>
         <v>10.730196901864801</v>
       </c>
-      <c r="L40" s="3">
+      <c r="L40" s="2">
         <f t="shared" si="6"/>
         <v>4.3838825847917207E-2</v>
       </c>
-      <c r="M40" s="3">
+      <c r="M40" s="2">
         <f t="shared" si="7"/>
         <v>3.2181680583658334E-2</v>
       </c>
-      <c r="N40" s="3"/>
+      <c r="N40" s="2"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A41" s="7">
+      <c r="A41" s="6">
         <v>1999</v>
       </c>
       <c r="B41">
@@ -7786,18 +7785,18 @@
         <f t="shared" si="3"/>
         <v>10.765544595881369</v>
       </c>
-      <c r="L41" s="3">
+      <c r="L41" s="2">
         <f t="shared" si="6"/>
         <v>4.6831094489473202E-2</v>
       </c>
-      <c r="M41" s="3">
+      <c r="M41" s="2">
         <f t="shared" si="7"/>
         <v>3.5347694016568454E-2</v>
       </c>
-      <c r="N41" s="3"/>
+      <c r="N41" s="2"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A42" s="7">
+      <c r="A42" s="6">
         <v>2000</v>
       </c>
       <c r="B42">
@@ -7836,18 +7835,18 @@
         <f t="shared" si="3"/>
         <v>10.794379262052846</v>
       </c>
-      <c r="L42" s="3">
+      <c r="L42" s="2">
         <f t="shared" si="6"/>
         <v>3.996235613943E-2</v>
       </c>
-      <c r="M42" s="3">
+      <c r="M42" s="2">
         <f t="shared" si="7"/>
         <v>2.8834666171476897E-2</v>
       </c>
-      <c r="N42" s="3"/>
+      <c r="N42" s="2"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A43" s="7">
+      <c r="A43" s="6">
         <v>2001</v>
       </c>
       <c r="B43">
@@ -7886,18 +7885,18 @@
         <f t="shared" si="3"/>
         <v>10.793979985064505</v>
       </c>
-      <c r="L43" s="3">
+      <c r="L43" s="2">
         <f t="shared" si="6"/>
         <v>9.4981368338942218E-3</v>
       </c>
-      <c r="M43" s="3">
+      <c r="M43" s="2">
         <f t="shared" si="7"/>
         <v>-3.9927698834141268E-4</v>
       </c>
-      <c r="N43" s="3"/>
+      <c r="N43" s="2"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A44" s="7">
+      <c r="A44" s="6">
         <v>2002</v>
       </c>
       <c r="B44">
@@ -7936,18 +7935,18 @@
         <f t="shared" si="3"/>
         <v>10.801519233879761</v>
       </c>
-      <c r="L44" s="3">
+      <c r="L44" s="2">
         <f t="shared" si="6"/>
         <v>1.6817223672362047E-2</v>
       </c>
-      <c r="M44" s="3">
+      <c r="M44" s="2">
         <f t="shared" si="7"/>
         <v>7.5392488152559167E-3</v>
       </c>
-      <c r="N44" s="3"/>
+      <c r="N44" s="2"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A45" s="7">
+      <c r="A45" s="6">
         <v>2003</v>
       </c>
       <c r="B45">
@@ -7986,18 +7985,18 @@
         <f t="shared" si="3"/>
         <v>10.820502706651761</v>
       </c>
-      <c r="L45" s="3">
+      <c r="L45" s="2">
         <f t="shared" si="6"/>
         <v>2.7578289900407782E-2</v>
       </c>
-      <c r="M45" s="3">
+      <c r="M45" s="2">
         <f t="shared" si="7"/>
         <v>1.8983472771999743E-2</v>
       </c>
-      <c r="N45" s="3"/>
+      <c r="N45" s="2"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A46" s="7">
+      <c r="A46" s="6">
         <v>2004</v>
       </c>
       <c r="B46">
@@ -8036,18 +8035,18 @@
         <f t="shared" si="3"/>
         <v>10.849049810682711</v>
       </c>
-      <c r="L46" s="3">
+      <c r="L46" s="2">
         <f t="shared" si="6"/>
         <v>3.7801943720385367E-2</v>
       </c>
-      <c r="M46" s="3">
+      <c r="M46" s="2">
         <f t="shared" si="7"/>
         <v>2.8547104030950621E-2</v>
       </c>
-      <c r="N46" s="3"/>
+      <c r="N46" s="2"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A47" s="7">
+      <c r="A47" s="6">
         <v>2005</v>
       </c>
       <c r="B47">
@@ -8086,18 +8085,18 @@
         <f t="shared" si="3"/>
         <v>10.874071970075519</v>
       </c>
-      <c r="L47" s="3">
+      <c r="L47" s="2">
         <f t="shared" si="6"/>
         <v>3.423929106442003E-2</v>
       </c>
-      <c r="M47" s="3">
+      <c r="M47" s="2">
         <f t="shared" si="7"/>
         <v>2.5022159392808163E-2</v>
       </c>
-      <c r="N47" s="3"/>
+      <c r="N47" s="2"/>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A48" s="7">
+      <c r="A48" s="6">
         <v>2006</v>
       </c>
       <c r="B48">
@@ -8136,18 +8135,18 @@
         <f t="shared" si="3"/>
         <v>10.891877372144815</v>
       </c>
-      <c r="L48" s="3">
+      <c r="L48" s="2">
         <f t="shared" si="6"/>
         <v>2.744794124065919E-2</v>
       </c>
-      <c r="M48" s="3">
+      <c r="M48" s="2">
         <f t="shared" si="7"/>
         <v>1.780540206929615E-2</v>
       </c>
-      <c r="N48" s="3"/>
+      <c r="N48" s="2"/>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A49" s="7">
+      <c r="A49" s="6">
         <v>2007</v>
       </c>
       <c r="B49">
@@ -8186,18 +8185,18 @@
         <f t="shared" si="3"/>
         <v>10.902272456919659</v>
       </c>
-      <c r="L49" s="3">
+      <c r="L49" s="2">
         <f t="shared" si="6"/>
         <v>1.9905637202565885E-2</v>
       </c>
-      <c r="M49" s="3">
+      <c r="M49" s="2">
         <f t="shared" si="7"/>
         <v>1.0395084774843966E-2</v>
       </c>
-      <c r="N49" s="3"/>
+      <c r="N49" s="2"/>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A50" s="7">
+      <c r="A50" s="6">
         <v>2008</v>
       </c>
       <c r="B50">
@@ -8236,18 +8235,18 @@
         <f t="shared" si="3"/>
         <v>10.894034942583335</v>
       </c>
-      <c r="L50" s="3">
+      <c r="L50" s="2">
         <f t="shared" si="6"/>
         <v>1.2211385365041849E-3</v>
       </c>
-      <c r="M50" s="3">
+      <c r="M50" s="2">
         <f t="shared" si="7"/>
         <v>-8.2375143363240255E-3</v>
       </c>
-      <c r="N50" s="3"/>
+      <c r="N50" s="2"/>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A51" s="7">
+      <c r="A51" s="6">
         <v>2009</v>
       </c>
       <c r="B51">
@@ -8286,18 +8285,18 @@
         <f t="shared" si="3"/>
         <v>10.858925600547803</v>
       </c>
-      <c r="L51" s="3">
+      <c r="L51" s="2">
         <f t="shared" si="6"/>
         <v>-2.6342829047504068E-2</v>
       </c>
-      <c r="M51" s="3">
+      <c r="M51" s="2">
         <f t="shared" si="7"/>
         <v>-3.510934203553262E-2</v>
       </c>
-      <c r="N51" s="3"/>
+      <c r="N51" s="2"/>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A52" s="7">
+      <c r="A52" s="6">
         <v>2010</v>
       </c>
       <c r="B52">
@@ -8336,18 +8335,18 @@
         <f t="shared" si="3"/>
         <v>10.877357599531203</v>
       </c>
-      <c r="L52" s="3">
+      <c r="L52" s="2">
         <f t="shared" si="6"/>
         <v>2.6728165730499853E-2</v>
       </c>
-      <c r="M52" s="3">
+      <c r="M52" s="2">
         <f t="shared" si="7"/>
         <v>1.8431998983400533E-2</v>
       </c>
-      <c r="N52" s="3"/>
+      <c r="N52" s="2"/>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A53" s="7">
+      <c r="A53" s="6">
         <v>2011</v>
       </c>
       <c r="B53">
@@ -8386,18 +8385,18 @@
         <f t="shared" si="3"/>
         <v>10.885469800056763</v>
       </c>
-      <c r="L53" s="3">
+      <c r="L53" s="2">
         <f t="shared" si="6"/>
         <v>1.5380067573662615E-2</v>
       </c>
-      <c r="M53" s="3">
+      <c r="M53" s="2">
         <f t="shared" si="7"/>
         <v>8.1122005255593876E-3</v>
       </c>
-      <c r="N53" s="3"/>
+      <c r="N53" s="2"/>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A54" s="7">
+      <c r="A54" s="6">
         <v>2012</v>
       </c>
       <c r="B54">
@@ -8436,18 +8435,18 @@
         <f t="shared" si="3"/>
         <v>10.900684487809697</v>
       </c>
-      <c r="L54" s="3">
+      <c r="L54" s="2">
         <f t="shared" si="6"/>
         <v>2.2550687165445282E-2</v>
       </c>
-      <c r="M54" s="3">
+      <c r="M54" s="2">
         <f t="shared" si="7"/>
         <v>1.5214687752933997E-2</v>
       </c>
-      <c r="N54" s="3"/>
+      <c r="N54" s="2"/>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A55" s="7">
+      <c r="A55" s="6">
         <v>2013</v>
       </c>
       <c r="B55">
@@ -8486,18 +8485,18 @@
         <f t="shared" si="3"/>
         <v>10.91200706824873</v>
       </c>
-      <c r="L55" s="3">
+      <c r="L55" s="2">
         <f t="shared" si="6"/>
         <v>1.8251183205279631E-2</v>
       </c>
-      <c r="M55" s="3">
+      <c r="M55" s="2">
         <f t="shared" si="7"/>
         <v>1.1322580439033558E-2</v>
       </c>
-      <c r="N55" s="3"/>
+      <c r="N55" s="2"/>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A56" s="7">
+      <c r="A56" s="6">
         <v>2014</v>
       </c>
       <c r="B56">
@@ -8536,18 +8535,18 @@
         <f t="shared" si="3"/>
         <v>10.927293440528661</v>
       </c>
-      <c r="L56" s="3">
+      <c r="L56" s="2">
         <f t="shared" si="6"/>
         <v>2.2619987479302495E-2</v>
       </c>
-      <c r="M56" s="3">
+      <c r="M56" s="2">
         <f t="shared" si="7"/>
         <v>1.5286372279931015E-2</v>
       </c>
-      <c r="N56" s="3"/>
+      <c r="N56" s="2"/>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A57" s="7">
+      <c r="A57" s="6">
         <v>2015</v>
       </c>
       <c r="B57">
@@ -8586,18 +8585,18 @@
         <f t="shared" si="3"/>
         <v>10.946635217707641</v>
       </c>
-      <c r="L57" s="3">
+      <c r="L57" s="2">
         <f t="shared" si="6"/>
         <v>2.6703950267233267E-2</v>
       </c>
-      <c r="M57" s="3">
+      <c r="M57" s="2">
         <f t="shared" si="7"/>
         <v>1.9341777178979669E-2</v>
       </c>
-      <c r="N57" s="3"/>
+      <c r="N57" s="2"/>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A58" s="7">
+      <c r="A58" s="6">
         <v>2016</v>
       </c>
       <c r="B58">
@@ -8636,18 +8635,18 @@
         <f t="shared" si="3"/>
         <v>10.955925681011598</v>
       </c>
-      <c r="L58" s="3">
+      <c r="L58" s="2">
         <f t="shared" si="6"/>
         <v>1.6537223978474458E-2</v>
       </c>
-      <c r="M58" s="3">
+      <c r="M58" s="2">
         <f t="shared" si="7"/>
         <v>9.2904633039569973E-3</v>
       </c>
-      <c r="N58" s="3"/>
+      <c r="N58" s="2"/>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A59" s="7">
+      <c r="A59" s="6">
         <v>2017</v>
       </c>
       <c r="B59">
@@ -8686,18 +8685,18 @@
         <f t="shared" si="3"/>
         <v>10.97177083676144</v>
       </c>
-      <c r="L59" s="3">
+      <c r="L59" s="2">
         <f t="shared" si="6"/>
         <v>2.2171595700665847E-2</v>
       </c>
-      <c r="M59" s="3">
+      <c r="M59" s="2">
         <f t="shared" si="7"/>
         <v>1.5845155749842021E-2</v>
       </c>
-      <c r="N59" s="3"/>
+      <c r="N59" s="2"/>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A60" s="7">
+      <c r="A60" s="6">
         <v>2018</v>
       </c>
       <c r="B60">
@@ -8736,18 +8735,18 @@
         <f t="shared" si="3"/>
         <v>10.995534900061468</v>
       </c>
-      <c r="L60" s="3">
+      <c r="L60" s="2">
         <f t="shared" si="6"/>
         <v>2.9028417255670291E-2</v>
       </c>
-      <c r="M60" s="3">
+      <c r="M60" s="2">
         <f t="shared" si="7"/>
         <v>2.3764063300028226E-2</v>
       </c>
-      <c r="N60" s="3"/>
+      <c r="N60" s="2"/>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A61" s="7">
+      <c r="A61" s="6">
         <v>2019</v>
       </c>
       <c r="B61">
@@ -8786,18 +8785,18 @@
         <f t="shared" si="3"/>
         <v>11.013666213726987</v>
       </c>
-      <c r="L61" s="3">
+      <c r="L61" s="2">
         <f t="shared" si="6"/>
         <v>2.2685126525153976E-2</v>
       </c>
-      <c r="M61" s="3">
+      <c r="M61" s="2">
         <f t="shared" si="7"/>
         <v>1.8131313665518789E-2</v>
       </c>
-      <c r="N61" s="3"/>
+      <c r="N61" s="2"/>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A62" s="7">
+      <c r="A62" s="6">
         <v>2020</v>
       </c>
       <c r="B62">
@@ -8836,18 +8835,18 @@
         <f t="shared" si="3"/>
         <v>10.975954455234884</v>
       </c>
-      <c r="L62" s="3">
+      <c r="L62" s="2">
         <f t="shared" si="6"/>
         <v>-2.8068279490170767E-2</v>
       </c>
-      <c r="M62" s="3">
+      <c r="M62" s="2">
         <f t="shared" si="7"/>
         <v>-3.7711758492102732E-2</v>
       </c>
-      <c r="N62" s="3"/>
+      <c r="N62" s="2"/>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A63" s="7">
+      <c r="A63" s="6">
         <v>2021</v>
       </c>
       <c r="B63">
@@ -8886,18 +8885,18 @@
         <f t="shared" si="3"/>
         <v>11.032141465811019</v>
       </c>
-      <c r="L63" s="3">
+      <c r="L63" s="2">
         <f t="shared" si="6"/>
         <v>5.7754481123637902E-2</v>
       </c>
-      <c r="M63" s="3">
+      <c r="M63" s="2">
         <f t="shared" si="7"/>
         <v>5.6187010576135066E-2</v>
       </c>
-      <c r="N63" s="3"/>
+      <c r="N63" s="2"/>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A64" s="7">
+      <c r="A64" s="6">
         <v>2022</v>
       </c>
       <c r="B64">
@@ -8936,35 +8935,34 @@
         <f t="shared" si="3"/>
         <v>11.04753721519419</v>
       </c>
-      <c r="L64" s="3">
+      <c r="L64" s="2">
         <f t="shared" si="6"/>
         <v>1.9171394697764299E-2</v>
       </c>
-      <c r="M64" s="3">
+      <c r="M64" s="2">
         <f t="shared" si="7"/>
         <v>1.5395749383170454E-2</v>
       </c>
-      <c r="N64" s="3"/>
+      <c r="N64" s="2"/>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A65" s="1"/>
-      <c r="F65" s="4">
+    <row r="65" spans="6:14" x14ac:dyDescent="0.2">
+      <c r="F65" s="3">
         <f>AVERAGE(F3:F64)</f>
         <v>2.6162245244860962E-2</v>
       </c>
-      <c r="G65" s="4">
+      <c r="G65" s="3">
         <f>AVERAGE(G3:G64)</f>
         <v>2.0091045944116787E-2</v>
       </c>
-      <c r="L65" s="4">
+      <c r="L65" s="3">
         <f>AVERAGE(L3:L64)</f>
         <v>2.9041560586400242E-2</v>
       </c>
-      <c r="M65" s="4">
+      <c r="M65" s="3">
         <f>AVERAGE(M3:M64)</f>
         <v>1.9165303261242366E-2</v>
       </c>
-      <c r="N65" s="5"/>
+      <c r="N65" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
